--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drsfi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D47930-53A5-4D94-B166-D60471A96566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31FDF3BC-F04E-4ECA-994E-03D8AF04797B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53D80BA5-0F73-41B4-8999-40496337737D}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Website fundamentals including the following 4 pages Contact us, About us, Online-Shop and Brand recommended recipes .  </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>People Assigned for the deliverables</t>
   </si>
@@ -118,13 +115,142 @@
   </si>
   <si>
     <t>As a large retail customer I want to give feedback on the product so that the next purchase is too my requirements.</t>
+  </si>
+  <si>
+    <t>As an English speaking, customer, I want to fill out an order form for multiple large 1L bottles so that I can buy a gift on my credit card for myself and my friends/family.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a large retail customer I want </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>loyalty code with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Lofthus frukt og saft" after 3 purchases to r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">eward me </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>business.</t>
+    </r>
+  </si>
+  <si>
+    <t>As a customer I need to log on to a website including the following Contact us, About us, Online-Shop and Brand recommended recipes.</t>
+  </si>
+  <si>
+    <t>% Complete</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Buffer week</t>
+  </si>
+  <si>
+    <t>Build Time</t>
+  </si>
+  <si>
+    <t>Debug &amp; Troubleshoot</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,11 +259,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -158,8 +284,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +310,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -188,16 +338,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -206,37 +356,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,127 +725,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EFA4F6-7B8A-4CC2-83F6-8B410094A148}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="8">
+        <v>43786</v>
+      </c>
+      <c r="I1" s="8">
+        <v>43793</v>
+      </c>
+      <c r="J1" s="8">
+        <v>43800</v>
+      </c>
+      <c r="K1" s="8">
+        <v>43807</v>
+      </c>
+      <c r="L1" s="8">
+        <v>43814</v>
+      </c>
+      <c r="M1" s="8">
+        <v>43821</v>
+      </c>
+      <c r="N1" s="8">
+        <v>43828</v>
+      </c>
+      <c r="O1" s="8">
+        <v>43835</v>
+      </c>
+      <c r="P1" s="8">
+        <v>43842</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>43849</v>
+      </c>
+      <c r="R1" s="8">
+        <v>43856</v>
+      </c>
+      <c r="S1" s="8">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="16"/>
+    </row>
+    <row r="8" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drsfi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31FDF3BC-F04E-4ECA-994E-03D8AF04797B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EA7C81-4C38-4FC4-A062-6E4AE504ED71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53D80BA5-0F73-41B4-8999-40496337737D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>People Assigned for the deliverables</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t xml:space="preserve">Scrum manager </t>
-  </si>
-  <si>
-    <t>As a scrum manager I will set up a company account with google documents to share documents and set up gmail accounts for all the development team.</t>
   </si>
   <si>
     <r>
@@ -228,9 +225,6 @@
     <t>User Story</t>
   </si>
   <si>
-    <t>Buffer week</t>
-  </si>
-  <si>
     <t>Build Time</t>
   </si>
   <si>
@@ -244,6 +238,15 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Presentation+ Buffer week</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>As a scrum manager I will set up a company account with Github and  google documents to share Html code documents and set up gmail accounts for all the development team.</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,6 +410,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,7 +733,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +751,7 @@
     <col min="16" max="16" width="11.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.140625" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -798,7 +803,7 @@
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -816,48 +821,48 @@
         <v>5</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="Q2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -868,82 +873,88 @@
         <v>0</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M3" s="14"/>
-      <c r="N3" s="15" t="s">
-        <v>25</v>
+      <c r="N3" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="16"/>
+      <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="N4" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="16"/>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="16"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="18"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="16"/>
+      <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:19" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="6"/>
       <c r="G6" s="12">
         <v>0</v>
@@ -955,21 +966,23 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="16"/>
+      <c r="S6" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="18"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="12">
         <v>0</v>
       </c>
@@ -980,19 +993,21 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="17"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="16"/>
+      <c r="S7" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="12">
@@ -1007,19 +1022,21 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="S8" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="12">
         <v>0</v>
       </c>
@@ -1032,19 +1049,21 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="S9" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="12">
         <v>0</v>
       </c>
@@ -1058,8 +1077,10 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="16"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
